--- a/Calendario2022/Actividades/Actividad5_Cableado_estructurado/act5.xlsx
+++ b/Calendario2022/Actividades/Actividad5_Cableado_estructurado/act5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Actividades\Actividad5_Cableado_estructurado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1178E-9F94-4A8A-941F-C6687EC410CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF65B393-928B-4C83-BE7A-B97C9C92FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DB1E1576-0C02-43EA-9ECE-F81693895290}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0444A13D-E444-4250-AD88-A11505544654}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,7 +754,7 @@
         <v>8.4</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" ref="H14:H19" si="3">G15*D15*2</f>
+        <f t="shared" ref="H15:H19" si="3">G15*D15*2</f>
         <v>33.6</v>
       </c>
       <c r="I15" s="2"/>
